--- a/Resources/CompExcel.xlsx
+++ b/Resources/CompExcel.xlsx
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411A3857-E7C9-438B-8B9C-5055CD99BF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Состав" sheetId="2" r:id="rId1"/>
+    <sheet name="Состав" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Состав</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Причина ухода</t>
   </si>
   <si>
-    <t>Титов Егор</t>
+    <t>Витальевич Егор</t>
   </si>
   <si>
     <t>+375445414969</t>
@@ -67,13 +67,26 @@
   </si>
   <si>
     <t>+375251234567</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Не понарвился курс</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,18 +112,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,15 +123,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,22 +411,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.5472586495536" customWidth="1" style="1"/>
+    <col min="2" max="2" width="20.8298797607422" customWidth="1" style="1"/>
+    <col min="3" max="3" width="10.0365426199777" customWidth="1" style="1"/>
+    <col min="4" max="4" width="24.3824746268136" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -449,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -463,7 +466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -477,63 +480,85 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>